--- a/1c_Formato_DiccionarioDatos_ RUIAS.xlsx
+++ b/1c_Formato_DiccionarioDatos_ RUIAS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Downloads\code\workspace\SI\SI_IA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23957251-31C0-4593-8EB7-363317E184C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650C8B80-406C-438C-8F10-A33AC904744C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="408" yWindow="780" windowWidth="11424" windowHeight="11508" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DiccionarioDatos" sheetId="1" r:id="rId1"/>
@@ -529,9 +529,6 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -556,9 +553,6 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -567,15 +561,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -599,6 +584,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -818,7 +818,7 @@
   <dimension ref="A1:AA1003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -962,10 +962,10 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="16" t="s">
@@ -1001,8 +1001,8 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="37"/>
+      <c r="B6" s="23" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="16" t="s">
@@ -1038,8 +1038,8 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="24" t="s">
+      <c r="A7" s="37"/>
+      <c r="B7" s="41" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -1075,11 +1075,11 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17"/>
-      <c r="B8" s="26" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -1112,11 +1112,11 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="24" t="s">
+      <c r="A9" s="37"/>
+      <c r="B9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1151,11 +1151,11 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="8" t="s">
@@ -1188,11 +1188,11 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="41" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>24</v>
       </c>
       <c r="D11" s="12" t="s">
@@ -1225,11 +1225,11 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="41" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="18" t="s">
         <v>26</v>
       </c>
       <c r="D12" s="12" t="s">
@@ -1262,13 +1262,13 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1301,11 +1301,11 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="23" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
@@ -1338,11 +1338,11 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="19" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -1377,11 +1377,11 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="24" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="19" t="s">
         <v>36</v>
       </c>
       <c r="D16" s="6" t="s">
@@ -1416,11 +1416,11 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="24" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>38</v>
       </c>
       <c r="D17" s="6" t="s">
@@ -1455,11 +1455,11 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="25" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="6" t="s">
@@ -1492,11 +1492,11 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="25" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="19" t="s">
         <v>42</v>
       </c>
       <c r="D19" s="6" t="s">
@@ -1531,11 +1531,11 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="26" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D20" s="6" t="s">
@@ -1568,11 +1568,11 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="25" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>46</v>
       </c>
       <c r="D21" s="6" t="s">
@@ -1605,11 +1605,11 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="27" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="19" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="6" t="s">
@@ -1644,11 +1644,11 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="25" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="19" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="6" t="s">
@@ -1683,11 +1683,11 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="28" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="19" t="s">
         <v>54</v>
       </c>
       <c r="D24" s="6" t="s">
@@ -1722,13 +1722,13 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>57</v>
       </c>
       <c r="D25" s="6" t="s">
@@ -1763,11 +1763,11 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="27" t="s">
+      <c r="A26" s="39"/>
+      <c r="B26" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D26" s="6" t="s">
@@ -1800,11 +1800,11 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31"/>
-      <c r="B27" s="27" t="s">
+      <c r="A27" s="39"/>
+      <c r="B27" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D27" s="6" t="s">
@@ -1839,13 +1839,13 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B28" s="24" t="s">
+      <c r="B28" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="21" t="s">
         <v>64</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -1880,11 +1880,11 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="29" t="s">
+      <c r="A29" s="40"/>
+      <c r="B29" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="21" t="s">
         <v>67</v>
       </c>
       <c r="D29" s="6" t="s">
@@ -1917,11 +1917,11 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
-      <c r="B30" s="29" t="s">
+      <c r="A30" s="40"/>
+      <c r="B30" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="21" t="s">
         <v>69</v>
       </c>
       <c r="D30" s="6" t="s">
@@ -1956,21 +1956,21 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="35" t="s">
+      <c r="C31" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="32">
         <v>8</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="39" t="s">
+      <c r="F31" s="33"/>
+      <c r="G31" s="34" t="s">
         <v>34</v>
       </c>
       <c r="H31" s="1"/>
